--- a/08-2022.xlsx
+++ b/08-2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="2" r:id="rId1"/>
@@ -16,23 +16,23 @@
     <sheet name="NUCH" sheetId="8" r:id="rId7"/>
     <sheet name="P'GUN" sheetId="6" r:id="rId8"/>
     <sheet name="N'PARE" sheetId="11" r:id="rId9"/>
-    <sheet name="N'AUM" sheetId="9" r:id="rId10"/>
-    <sheet name="N'AUM Sep" sheetId="12" r:id="rId11"/>
-    <sheet name="NUCH Sep" sheetId="13" r:id="rId12"/>
+    <sheet name="N'AUM Sep" sheetId="12" r:id="rId10"/>
+    <sheet name="NUCH Sep" sheetId="13" r:id="rId11"/>
+    <sheet name="N'AUM" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="Company_Name" localSheetId="9">'N''AUM'!$B$2</definedName>
-    <definedName name="Company_Name" localSheetId="10">'N''AUM Sep'!$B$2</definedName>
+    <definedName name="Company_Name" localSheetId="11">'N''AUM'!$B$2</definedName>
+    <definedName name="Company_Name" localSheetId="9">'N''AUM Sep'!$B$2</definedName>
     <definedName name="Company_Name" localSheetId="8">'N''PARE'!$B$2</definedName>
     <definedName name="Company_Name" localSheetId="6">NUCH!$B$2</definedName>
-    <definedName name="Company_Name" localSheetId="11">'NUCH Sep'!$B$2</definedName>
+    <definedName name="Company_Name" localSheetId="10">'NUCH Sep'!$B$2</definedName>
     <definedName name="Company_Name" localSheetId="7">'P''GUN'!$B$2</definedName>
     <definedName name="Company_Name">'Service Invoice'!$B$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'N''AUM'!$B$2:$E$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'N''AUM Sep'!$B$2:$E$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'N''AUM'!$B$2:$E$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'N''AUM Sep'!$B$2:$E$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'N''PARE'!$B$2:$E$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">NUCH!$B$2:$E$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'NUCH Sep'!$B$2:$E$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">NUCH!$B$2:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'NUCH Sep'!$B$2:$E$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'P''GUN'!$B$2:$E$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Service Invoice'!$B$2:$E$44</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="100">
   <si>
     <t>Date:</t>
   </si>
@@ -262,9 +262,6 @@
     <t>แชมพูวาริส</t>
   </si>
   <si>
-    <t>พี่กัน</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -277,48 +274,21 @@
     <t>เพิ่ม</t>
   </si>
   <si>
-    <t>รอบ1</t>
-  </si>
-  <si>
     <t>Column2</t>
   </si>
   <si>
-    <t>รอบ2</t>
-  </si>
-  <si>
-    <t>รอบ3</t>
-  </si>
-  <si>
-    <t>รอบ4</t>
-  </si>
-  <si>
-    <t>น้ำหอมแจยัวร์ กลิ่น sweetie picnic</t>
-  </si>
-  <si>
-    <t>น้ำหอมแจยัวร์ กลิ่น sexy on the beach</t>
-  </si>
-  <si>
     <t>ชาเขียวเดลล่า</t>
   </si>
   <si>
-    <t>สบู่ใบบัวบก</t>
-  </si>
-  <si>
     <t>บรัชมูช 01</t>
   </si>
   <si>
-    <t>บรัชมูช 02</t>
-  </si>
-  <si>
     <t>บรัชมูช 04</t>
   </si>
   <si>
     <t>เจลใบบัวบก cica</t>
   </si>
   <si>
-    <t>รอบ5</t>
-  </si>
-  <si>
     <t>สบู่สับประรด มะนาว Be white</t>
   </si>
   <si>
@@ -359,21 +329,43 @@
   </si>
   <si>
     <t>กรรณิกา หาญศิริโสภณ</t>
+  </si>
+  <si>
+    <t>น้ำหอมแจยัวร์ กลิ่น sweetie picnic ,sexy on the beach( 3)</t>
+  </si>
+  <si>
+    <t>สบู่ใบบัวบก (2)</t>
+  </si>
+  <si>
+    <t>บรัชมูช 01,02,04 (3)</t>
+  </si>
+  <si>
+    <t>คลีนซิ่งนมแพะ(2)</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>เรทสต๊อก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode=";;;"/>
     <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -624,6 +616,47 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,14 +677,8 @@
       <name val="Arial"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,12 +700,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +873,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -872,8 +893,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1111,12 +1133,12 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,11 +1177,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
+    <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Currency" xfId="7" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="6" builtinId="17"/>
@@ -1170,7 +1205,7 @@
     <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Normal 5" xfId="5"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="111">
     <dxf>
       <font>
         <b val="0"/>
@@ -1312,311 +1347,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1" tint="0.14999847407452621"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1658,9 +1393,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1694,9 +1426,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1719,238 +1448,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1992,9 +1489,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2028,9 +1522,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2079,26 +1570,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2109,165 +1580,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color theme="1" tint="0.14999847407452621"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor indexed="9"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -2309,505 +1637,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thick">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color rgb="FF5B4381"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2942,6 +1771,1214 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thick">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF5B4381"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -3593,7 +3630,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3631,27 +3668,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66890</xdr:rowOff>
+      <xdr:rowOff>9740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>726334</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>775469</xdr:rowOff>
+      <xdr:rowOff>1067014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 18" descr="Logo placeholder">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE89AC6-D81D-4938-8155-2767441C8D35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3660,33 +3691,20 @@
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
           </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="276440"/>
-          <a:ext cx="1631209" cy="708579"/>
+          <a:off x="200025" y="219290"/>
+          <a:ext cx="1057274" cy="1057274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3993,21 +4011,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9740</xdr:rowOff>
+      <xdr:rowOff>66890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>726334</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1067014</xdr:rowOff>
+      <xdr:rowOff>775469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 18" descr="Logo placeholder">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE89AC6-D81D-4938-8155-2767441C8D35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4016,20 +4040,33 @@
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+            </a:ext>
           </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="219290"/>
-          <a:ext cx="1057274" cy="1057274"/>
+          <a:off x="228600" y="276440"/>
+          <a:ext cx="1631209" cy="708579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4072,7 +4109,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4106,7 +4143,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SalesDetails" displayName="SalesDetails" ref="B12:E13" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SalesDetails" displayName="SalesDetails" ref="B12:E13" totalsRowShown="0" headerRowDxfId="110" headerRowBorderDxfId="109" tableBorderDxfId="108" headerRowCellStyle="Normal 5">
   <autoFilter ref="B12:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4114,10 +4151,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="พนักงานขาย" dataDxfId="106"/>
-    <tableColumn id="2" name="Job" dataDxfId="105"/>
-    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="104"/>
-    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="103"/>
+    <tableColumn id="1" name="พนักงานขาย" dataDxfId="107"/>
+    <tableColumn id="2" name="Job" dataDxfId="106"/>
+    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="105"/>
+    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4129,7 +4166,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="InvoiceDetails359" displayName="InvoiceDetails359" ref="B15:F37" totalsRowCount="1" headerRowDxfId="43" headerRowBorderDxfId="42" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="InvoiceDetails35913" displayName="InvoiceDetails35913" ref="B15:F37" totalsRowCount="1" headerRowDxfId="37" headerRowBorderDxfId="36" headerRowCellStyle="Normal 5">
   <autoFilter ref="B15:F36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4138,12 +4175,12 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="จำนวน"/>
-    <tableColumn id="2" name="รายการ" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="2" name="รายการ" dataDxfId="35" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="34" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="0">
       <totalsRowFormula>IF(SUM(E33)&gt;0,SUM((E33*E34)+E33+E36),"")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Column1" dataDxfId="35"/>
+    <tableColumn id="5" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4155,7 +4192,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SalesDetails24812" displayName="SalesDetails24812" ref="B12:E13" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="SalesDetails2414" displayName="SalesDetails2414" ref="B12:E13" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" headerRowCellStyle="Normal 5">
   <autoFilter ref="B12:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4163,10 +4200,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="พนักงานขาย" dataDxfId="31"/>
-    <tableColumn id="2" name="Job" dataDxfId="30"/>
-    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="29"/>
-    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="28"/>
+    <tableColumn id="1" name="พนักงานขาย" dataDxfId="29"/>
+    <tableColumn id="2" name="Job" dataDxfId="28"/>
+    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="27"/>
+    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4178,20 +4215,22 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="InvoiceDetails35913" displayName="InvoiceDetails35913" ref="B15:E37" totalsRowCount="1" headerRowDxfId="27" headerRowBorderDxfId="26" headerRowCellStyle="Normal 5">
-  <autoFilter ref="B15:E36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="InvoiceDetails3515" displayName="InvoiceDetails3515" ref="B15:G43" totalsRowCount="1" headerRowDxfId="25" headerRowBorderDxfId="24" headerRowCellStyle="Normal 5">
+  <autoFilter ref="B15:G42">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
+  <tableColumns count="6">
     <tableColumn id="1" name="จำนวน"/>
-    <tableColumn id="2" name="รายการ" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
-      <totalsRowFormula>IF(SUM(E33)&gt;0,SUM((E33*E34)+E33+E36),"")</totalsRowFormula>
+    <tableColumn id="2" name="รายการ" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+      <totalsRowFormula>IF(SUM(E39)&gt;0,SUM((E39*E40)+E39+E42),"")</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="5" name="Column1" dataDxfId="17"/>
+    <tableColumn id="6" name="Column2" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4203,7 +4242,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="SalesDetails2414" displayName="SalesDetails2414" ref="B12:E13" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="SalesDetails248" displayName="SalesDetails248" ref="B12:E13" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55" headerRowCellStyle="Normal 5">
   <autoFilter ref="B12:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4211,10 +4250,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="พนักงานขาย" dataDxfId="16"/>
-    <tableColumn id="2" name="Job" dataDxfId="15"/>
-    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="14"/>
-    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="13"/>
+    <tableColumn id="1" name="พนักงานขาย" dataDxfId="54"/>
+    <tableColumn id="2" name="Job" dataDxfId="53"/>
+    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="52"/>
+    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4226,22 +4265,21 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="InvoiceDetails3515" displayName="InvoiceDetails3515" ref="B15:G43" totalsRowCount="1" headerRowDxfId="12" headerRowBorderDxfId="11" headerRowCellStyle="Normal 5">
-  <autoFilter ref="B15:G42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="InvoiceDetails359" displayName="InvoiceDetails359" ref="B15:F37" totalsRowCount="1" headerRowDxfId="50" headerRowBorderDxfId="49" headerRowCellStyle="Normal 5">
+  <autoFilter ref="B15:F36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="5">
     <tableColumn id="1" name="จำนวน"/>
-    <tableColumn id="2" name="รายการ" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
-      <totalsRowFormula>IF(SUM(E39)&gt;0,SUM((E39*E40)+E39+E42),"")</totalsRowFormula>
+    <tableColumn id="2" name="รายการ" dataDxfId="48" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="47" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="9">
+      <totalsRowFormula>IF(SUM(E33)&gt;0,SUM((E33*E34)+E33+E36),"")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Column1" dataDxfId="4"/>
-    <tableColumn id="6" name="Column2" dataDxfId="3"/>
+    <tableColumn id="5" name="Column1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4253,7 +4291,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="InvoiceDetails" displayName="InvoiceDetails" ref="B15:E41" totalsRowCount="1" headerRowDxfId="102" headerRowBorderDxfId="101" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="InvoiceDetails" displayName="InvoiceDetails" ref="B15:E41" totalsRowCount="1" headerRowDxfId="103" headerRowBorderDxfId="102" headerRowCellStyle="Normal 5">
   <autoFilter ref="B15:E40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4262,9 +4300,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="จำนวน"/>
-    <tableColumn id="2" name="รายการ" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="2" name="รายการ" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>IF(SUM(E37)&gt;0,SUM((E37*E38)+E37+E40),"")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -4278,7 +4316,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="SalesDetails24" displayName="SalesDetails24" ref="B12:E13" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="SalesDetails24" displayName="SalesDetails24" ref="B12:E13" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93" headerRowCellStyle="Normal 5">
   <autoFilter ref="B12:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4286,10 +4324,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="พนักงานขาย" dataDxfId="91"/>
-    <tableColumn id="2" name="Job" dataDxfId="90"/>
-    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="89"/>
-    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="88"/>
+    <tableColumn id="1" name="พนักงานขาย" dataDxfId="92"/>
+    <tableColumn id="2" name="Job" dataDxfId="91"/>
+    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="90"/>
+    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4301,22 +4339,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="InvoiceDetails35" displayName="InvoiceDetails35" ref="B15:G43" totalsRowCount="1" headerRowDxfId="87" headerRowBorderDxfId="86" headerRowCellStyle="Normal 5">
-  <autoFilter ref="B15:G42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="InvoiceDetails35" displayName="InvoiceDetails35" ref="B15:H40" totalsRowCount="1" headerRowDxfId="88" headerRowBorderDxfId="87" headerRowCellStyle="Normal 5">
+  <autoFilter ref="B15:H39">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="จำนวน"/>
-    <tableColumn id="2" name="รายการ" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
-      <totalsRowFormula>IF(SUM(E39)&gt;0,SUM((E39*E40)+E39+E42),"")</totalsRowFormula>
+    <tableColumn id="2" name="รายการ" dataDxfId="86" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="85" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="6">
+      <totalsRowFormula>IF(SUM(E36)&gt;0,SUM((E36*E37)+E36+E39),"")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Column1" dataDxfId="79"/>
-    <tableColumn id="6" name="Column2" dataDxfId="78"/>
+    <tableColumn id="5" name="Column1" dataDxfId="83"/>
+    <tableColumn id="6" name="Column2" totalsRowLabel="32000" dataDxfId="5"/>
+    <tableColumn id="7" name="Column3" totalsRowFunction="custom" dataDxfId="4" dataCellStyle="Comma">
+      <totalsRowFormula>InvoiceDetails35[[#Totals],[จำนวนเงิน]]-InvoiceDetails35[[#Totals],[Column2]]</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4328,7 +4369,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SalesDetails2" displayName="SalesDetails2" ref="B12:E13" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SalesDetails2" displayName="SalesDetails2" ref="B12:E13" totalsRowShown="0" headerRowDxfId="82" headerRowBorderDxfId="81" tableBorderDxfId="80" headerRowCellStyle="Normal 5">
   <autoFilter ref="B12:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4336,10 +4377,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="พนักงานขาย" dataDxfId="74"/>
-    <tableColumn id="2" name="Job" dataDxfId="73"/>
-    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="72"/>
-    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="71"/>
+    <tableColumn id="1" name="พนักงานขาย" dataDxfId="79"/>
+    <tableColumn id="2" name="Job" dataDxfId="78"/>
+    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="77"/>
+    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4351,7 +4392,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="InvoiceDetails3" displayName="InvoiceDetails3" ref="B15:E41" totalsRowCount="1" headerRowDxfId="70" headerRowBorderDxfId="69" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="InvoiceDetails3" displayName="InvoiceDetails3" ref="B15:E41" totalsRowCount="1" headerRowDxfId="75" headerRowBorderDxfId="74" headerRowCellStyle="Normal 5">
   <autoFilter ref="B15:E40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4359,10 +4400,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="จำนวน"/>
-    <tableColumn id="2" name="รายการ" dataDxfId="68" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="67" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="0">
+    <tableColumn id="1" name="จำนวน" dataDxfId="13"/>
+    <tableColumn id="2" name="รายการ" dataDxfId="12"/>
+    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="14"/>
+    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="15">
       <totalsRowFormula>IF(SUM(E37)&gt;0,SUM((E37*E38)+E37+E40),"")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -4376,7 +4417,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="SalesDetails24810" displayName="SalesDetails24810" ref="B12:E13" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="SalesDetails24810" displayName="SalesDetails24810" ref="B12:E13" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" headerRowCellStyle="Normal 5">
   <autoFilter ref="B12:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4384,10 +4425,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="พนักงานขาย" dataDxfId="62"/>
-    <tableColumn id="2" name="Job" dataDxfId="61"/>
-    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="60"/>
-    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="59"/>
+    <tableColumn id="1" name="พนักงานขาย" dataDxfId="69"/>
+    <tableColumn id="2" name="Job" dataDxfId="68"/>
+    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="67"/>
+    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4399,7 +4440,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="InvoiceDetails35911" displayName="InvoiceDetails35911" ref="B15:E41" totalsRowCount="1" headerRowDxfId="58" headerRowBorderDxfId="57" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="InvoiceDetails35911" displayName="InvoiceDetails35911" ref="B15:E41" totalsRowCount="1" headerRowDxfId="65" headerRowBorderDxfId="64" headerRowCellStyle="Normal 5">
   <autoFilter ref="B15:E40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4408,9 +4449,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="จำนวน"/>
-    <tableColumn id="2" name="รายการ" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="2" name="รายการ" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="3" name="ราคา/หน่วย" totalsRowLabel="  จำนวนเงินรวมทั้งสิ้น  " dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="4" name="จำนวนเงิน" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
       <totalsRowFormula>IF(SUM(E37)&gt;0,SUM((E37*E38)+E37+E40),"")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -4424,7 +4465,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="SalesDetails248" displayName="SalesDetails248" ref="B12:E13" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SalesDetails24812" displayName="SalesDetails24812" ref="B12:E13" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Normal 5">
   <autoFilter ref="B12:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4432,10 +4473,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="พนักงานขาย" dataDxfId="47"/>
-    <tableColumn id="2" name="Job" dataDxfId="46"/>
-    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="45"/>
-    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="44"/>
+    <tableColumn id="1" name="พนักงานขาย" dataDxfId="41"/>
+    <tableColumn id="2" name="Job" dataDxfId="40"/>
+    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="39"/>
+    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -4795,12 +4836,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9">
+  <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -4837,7 +4878,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="48" t="s">
@@ -4845,7 +4886,7 @@
       </c>
       <c r="E3" s="73">
         <f ca="1">TODAY()</f>
-        <v>44803</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4858,7 +4899,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4959,9 +5000,8 @@
         <v>53</v>
       </c>
       <c r="E13" s="74">
-        <v>44804</v>
-      </c>
-      <c r="F13" s="16"/>
+        <v>44834</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
@@ -4986,14 +5026,14 @@
       <c r="E15" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="80" t="s">
-        <v>71</v>
+      <c r="F15" s="102" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>66</v>
@@ -5003,185 +5043,153 @@
       </c>
       <c r="E16" s="65">
         <f t="shared" ref="E16:E32" si="0">IF(SUM(B16)&gt;0,SUM(B16*D16),"")</f>
-        <v>10200</v>
-      </c>
-      <c r="F16" s="13"/>
+        <v>17000</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="57">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="0"/>
-        <v>5100</v>
-      </c>
-      <c r="F17" s="13"/>
+        <v>10800</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="57">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="F18" s="13"/>
+        <v>900</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="57">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>74</v>
+        <v>900</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="57">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E20" s="65">
         <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>74</v>
+        <v>5550</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="57">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="E21" s="65">
         <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
-      <c r="B22" s="15">
-        <v>10</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="57">
-        <v>199</v>
-      </c>
-      <c r="E22" s="65">
-        <f t="shared" ref="E22:E23" si="1">IF(SUM(B22)&gt;0,SUM(B22*D22),"")</f>
-        <v>1990</v>
-      </c>
-      <c r="F22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
-      <c r="B23" s="15">
-        <v>10</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="57">
-        <v>199</v>
-      </c>
-      <c r="E23" s="65">
-        <f t="shared" si="1"/>
-        <v>1990</v>
-      </c>
-      <c r="F23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
-      <c r="B24" s="15">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="57">
-        <v>199</v>
-      </c>
-      <c r="E24" s="65">
-        <f t="shared" si="0"/>
-        <v>1990</v>
-      </c>
-      <c r="F24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
-      <c r="B25" s="15">
-        <v>3</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="57">
-        <v>180</v>
-      </c>
-      <c r="E25" s="65">
-        <f t="shared" ref="E25:E26" si="2">IF(SUM(B25)&gt;0,SUM(B25*D25),"")</f>
-        <v>540</v>
-      </c>
-      <c r="F25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
-      <c r="B26" s="15">
-        <v>10</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="57">
-        <v>199</v>
-      </c>
-      <c r="E26" s="65">
-        <f t="shared" si="2"/>
-        <v>1990</v>
-      </c>
-      <c r="F26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
@@ -5192,7 +5200,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
@@ -5203,7 +5210,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
@@ -5214,7 +5220,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
@@ -5225,7 +5230,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
@@ -5236,7 +5240,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
@@ -5247,9 +5250,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="58" t="s">
@@ -5257,20 +5259,18 @@
       </c>
       <c r="E33" s="66">
         <f>IF(SUM(E16:E32)&gt;0,SUM(E16:E32),"")</f>
-        <v>30600</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="59" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="67"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="D35" s="59" t="s">
@@ -5279,9 +5279,8 @@
       <c r="E35" s="71">
         <v>0</v>
       </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="46"/>
       <c r="D36" s="59" t="s">
         <v>50</v>
@@ -5291,17 +5290,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="77"/>
-      <c r="D37" s="78" t="s">
+    <row r="37" spans="1:5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="99"/>
+      <c r="D37" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="101">
         <f>IF(SUM(E33)&gt;0,SUM((E33*E34)+E33+E36),"")</f>
-        <v>30600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35730</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>33</v>
       </c>
@@ -5315,7 +5314,7 @@
       </c>
       <c r="E38" s="93"/>
     </row>
-    <row r="39" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
         <v>34</v>
       </c>
@@ -5326,7 +5325,7 @@
       <c r="D39" s="92"/>
       <c r="E39" s="92"/>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
         <v>35</v>
       </c>
@@ -5337,21 +5336,21 @@
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="85"/>
       <c r="D42" s="85"/>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="75"/>
       <c r="D43" s="60"/>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="61"/>
@@ -5359,546 +5358,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C42:D42"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in this cell" sqref="E36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in cell at right" sqref="C36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B36"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E45"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="89"/>
-    </row>
-    <row r="3" spans="1:5" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="73">
-        <f ca="1">TODAY()</f>
-        <v>44803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-    </row>
-    <row r="12" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="74">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-    </row>
-    <row r="15" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="15">
-        <v>100</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="57">
-        <v>170</v>
-      </c>
-      <c r="E16" s="65">
-        <f t="shared" ref="E16:E32" si="0">IF(SUM(B16)&gt;0,SUM(B16*D16),"")</f>
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="15">
-        <v>60</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="57">
-        <v>180</v>
-      </c>
-      <c r="E17" s="65">
-        <f t="shared" si="0"/>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="15">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="57">
-        <v>180</v>
-      </c>
-      <c r="E18" s="65">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="15">
-        <v>5</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="57">
-        <v>180</v>
-      </c>
-      <c r="E19" s="65">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="15">
-        <v>30</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="57">
-        <v>185</v>
-      </c>
-      <c r="E20" s="65">
-        <f t="shared" si="0"/>
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="66">
-        <f>IF(SUM(E16:E32)&gt;0,SUM(E16:E32),"")</f>
-        <v>35150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="67"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="12"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="46"/>
-      <c r="D36" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="68">
-        <f>IFERROR(E33*E35, "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="77"/>
-      <c r="D37" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="79">
-        <f>IF(SUM(E33)&gt;0,SUM((E33*E34)+E33+E36),"")</f>
-        <v>35150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="93" t="str">
-        <f>B3</f>
-        <v>N TEAM</v>
-      </c>
-      <c r="E38" s="93"/>
-    </row>
-    <row r="39" spans="1:5" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="75"/>
-      <c r="D43" s="60"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B36"/>
@@ -5917,14 +5387,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -5961,7 +5431,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="48" t="s">
@@ -5969,7 +5439,7 @@
       </c>
       <c r="E3" s="73">
         <f ca="1">TODAY()</f>
-        <v>44803</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5982,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6111,10 +5581,10 @@
         <v>44</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -6123,7 +5593,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="65">
@@ -6138,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="65">
@@ -6153,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="65">
@@ -6168,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D19" s="56"/>
       <c r="E19" s="65">
@@ -6183,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="65">
@@ -6198,7 +5668,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="65">
@@ -6315,7 +5785,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="84"/>
+      <c r="F31" s="83"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
@@ -6326,7 +5796,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F32" s="84"/>
+      <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
@@ -6337,7 +5807,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F33" s="84"/>
+      <c r="F33" s="83"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
@@ -6348,7 +5818,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F34" s="84"/>
+      <c r="F34" s="83"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
@@ -6504,22 +5974,614 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C48:D48"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in this cell" sqref="E42"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in cell at right" sqref="C42"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B42"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="89"/>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="73">
+        <f ca="1">TODAY()</f>
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="26" customFormat="1" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="74">
+        <v>44804</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+    </row>
+    <row r="15" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="15">
+        <v>60</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="57">
+        <v>170</v>
+      </c>
+      <c r="E16" s="65">
+        <f t="shared" ref="E16:E32" si="0">IF(SUM(B16)&gt;0,SUM(B16*D16),"")</f>
+        <v>10200</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="15">
+        <v>30</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="57">
+        <v>170</v>
+      </c>
+      <c r="E17" s="65">
+        <f t="shared" si="0"/>
+        <v>5100</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="15">
+        <v>10</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="57">
+        <v>170</v>
+      </c>
+      <c r="E18" s="65">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="15">
+        <v>20</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="57">
+        <v>170</v>
+      </c>
+      <c r="E19" s="65">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="15">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="57">
+        <v>170</v>
+      </c>
+      <c r="E20" s="65">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="15">
+        <v>5</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="57">
+        <v>170</v>
+      </c>
+      <c r="E21" s="65">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="15">
+        <v>10</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="57">
+        <v>199</v>
+      </c>
+      <c r="E22" s="65">
+        <f t="shared" ref="E22:E23" si="1">IF(SUM(B22)&gt;0,SUM(B22*D22),"")</f>
+        <v>1990</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="15">
+        <v>10</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="57">
+        <v>199</v>
+      </c>
+      <c r="E23" s="65">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="15">
+        <v>10</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="57">
+        <v>199</v>
+      </c>
+      <c r="E24" s="65">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="57">
+        <v>180</v>
+      </c>
+      <c r="E25" s="65">
+        <f t="shared" ref="E25:E26" si="2">IF(SUM(B25)&gt;0,SUM(B25*D25),"")</f>
+        <v>540</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="15">
+        <v>10</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="57">
+        <v>199</v>
+      </c>
+      <c r="E26" s="65">
+        <f t="shared" si="2"/>
+        <v>1990</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="66">
+        <f>IF(SUM(E16:E32)&gt;0,SUM(E16:E32),"")</f>
+        <v>30600</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="67"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="71">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="46"/>
+      <c r="D36" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="68">
+        <f>IFERROR(E33*E35, "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="77"/>
+      <c r="D37" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="79">
+        <f>IF(SUM(E33)&gt;0,SUM((E33*E34)+E33+E36),"")</f>
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="94"/>
+      <c r="D38" s="93" t="str">
+        <f>B3</f>
+        <v>N TEAM</v>
+      </c>
+      <c r="E38" s="93"/>
+    </row>
+    <row r="39" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="75"/>
+      <c r="D43" s="60"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in this cell" sqref="E36"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in cell at right" sqref="C36"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B36"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -7122,7 +7184,7 @@
       </c>
       <c r="E3" s="73">
         <f ca="1">TODAY()</f>
-        <v>44803</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7713,10 +7775,10 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7726,15 +7788,17 @@
     <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="47" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>26</v>
       </c>
@@ -7747,12 +7811,12 @@
       </c>
       <c r="E2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="48" t="s">
@@ -7760,10 +7824,10 @@
       </c>
       <c r="E3" s="73">
         <f ca="1">TODAY()</f>
-        <v>44803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>28</v>
       </c>
@@ -7773,10 +7837,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>29</v>
       </c>
@@ -7789,7 +7853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="26" customFormat="1" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>30</v>
       </c>
@@ -7797,21 +7861,21 @@
         <v>3</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="4"/>
       <c r="C7" s="20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="3"/>
       <c r="C8" s="17" t="s">
@@ -7820,7 +7884,7 @@
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="3"/>
       <c r="C9" s="17" t="s">
@@ -7829,7 +7893,7 @@
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="3"/>
       <c r="C10" s="17" t="s">
@@ -7838,14 +7902,14 @@
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="97"/>
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
     </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>31</v>
       </c>
@@ -7862,7 +7926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="21" t="s">
         <v>52</v>
@@ -7878,14 +7942,14 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="91"/>
       <c r="C14" s="91"/>
       <c r="D14" s="91"/>
       <c r="E14" s="91"/>
     </row>
-    <row r="15" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>32</v>
       </c>
@@ -7902,13 +7966,16 @@
         <v>44</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G15" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="14">
         <v>100</v>
@@ -7920,12 +7987,12 @@
         <v>160</v>
       </c>
       <c r="E16" s="45">
-        <f t="shared" ref="E16:E38" si="0">IF(SUM(B16)&gt;0,SUM(B16*D16),"")</f>
+        <f t="shared" ref="E16:E35" si="0">IF(SUM(B16)&gt;0,SUM(B16*D16),"")</f>
         <v>16000</v>
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="15">
         <v>160</v>
@@ -7942,7 +8009,7 @@
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="15">
         <v>20</v>
@@ -7959,7 +8026,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="15">
         <v>20</v>
@@ -7976,7 +8043,7 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="15">
         <v>10</v>
@@ -7993,41 +8060,41 @@
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="15">
         <v>1</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="57"/>
+        <v>71</v>
+      </c>
+      <c r="D21" s="57">
+        <v>270</v>
+      </c>
       <c r="E21" s="65">
         <f>IF(SUM(B21)&gt;0,SUM(B21*D21),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="81" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="F21" s="81"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="15">
         <v>1</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="57"/>
+        <v>72</v>
+      </c>
+      <c r="D22" s="57">
+        <v>69</v>
+      </c>
       <c r="E22" s="65">
         <f>IF(SUM(B22)&gt;0,SUM(B22*D22),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="81" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F22" s="81"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="15">
         <v>1</v>
@@ -8035,19 +8102,16 @@
       <c r="C23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="57">
+        <v>330</v>
+      </c>
       <c r="E23" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="F23" s="82"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="15">
         <v>1</v>
@@ -8055,19 +8119,16 @@
       <c r="C24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="57">
+        <v>980</v>
+      </c>
       <c r="E24" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+      <c r="F24" s="82"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="15">
         <v>1</v>
@@ -8075,342 +8136,306 @@
       <c r="C25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="57"/>
+      <c r="D25" s="57">
+        <v>270</v>
+      </c>
       <c r="E25" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="F25" s="82"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="D26" s="57">
+        <v>810</v>
+      </c>
+      <c r="E26" s="65">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="F26" s="82"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="15">
         <v>1</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="D27" s="57">
+        <v>180</v>
+      </c>
+      <c r="E27" s="65">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F27" s="82"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="15">
         <v>1</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="57"/>
+        <v>94</v>
+      </c>
+      <c r="D28" s="57">
+        <v>320</v>
+      </c>
       <c r="E28" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="F28" s="82"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="57"/>
+        <v>96</v>
+      </c>
+      <c r="D29" s="57">
+        <v>460</v>
+      </c>
       <c r="E29" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="F29" s="82"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="D30" s="57">
+        <v>230</v>
+      </c>
+      <c r="E30" s="65">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="F30" s="82"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="15">
         <v>1</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="57"/>
+        <v>78</v>
+      </c>
+      <c r="D31" s="57">
+        <v>149</v>
+      </c>
       <c r="E31" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="F31" s="82"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="57"/>
+        <v>71</v>
+      </c>
+      <c r="D32" s="57">
+        <v>270</v>
+      </c>
       <c r="E32" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+      <c r="F32" s="82"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="15">
         <v>1</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="57"/>
+        <v>79</v>
+      </c>
+      <c r="D33" s="57">
+        <v>159</v>
+      </c>
       <c r="E33" s="65">
         <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="66">
+        <f>IF(SUM(E16:E35)&gt;0,SUM(E16:E35),"")</f>
+        <v>54267</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="71">
         <v>0</v>
       </c>
-      <c r="F33" s="83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="15">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="65">
-        <f t="shared" si="0"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="46"/>
+      <c r="D39" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="68">
+        <f>IFERROR(E36*E38, "")</f>
         <v>0</v>
       </c>
-      <c r="F34" s="83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="15">
-        <v>2</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="15">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="66">
-        <f>IF(SUM(E16:E38)&gt;0,SUM(E16:E38),"")</f>
-        <v>49500</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="12"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="71">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="46"/>
-      <c r="D42" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="68">
-        <f>IFERROR(E39*E41, "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="77"/>
-      <c r="D43" s="78" t="s">
+    </row>
+    <row r="40" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="99"/>
+      <c r="D40" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="79">
-        <f>IF(SUM(E39)&gt;0,SUM((E39*E40)+E39+E42),"")</f>
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
+      <c r="E40" s="101">
+        <f>IF(SUM(E36)&gt;0,SUM((E36*E37)+E36+E39),"")</f>
+        <v>54267</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="103">
+        <f>InvoiceDetails35[[#Totals],[จำนวนเงิน]]-InvoiceDetails35[[#Totals],[Column2]]</f>
+        <v>22267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B41" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="93" t="str">
+      <c r="C41" s="94"/>
+      <c r="D41" s="93" t="str">
         <f>B3</f>
         <v>N TEAM</v>
       </c>
-      <c r="E44" s="93"/>
-    </row>
-    <row r="45" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
+      <c r="E41" s="93"/>
+    </row>
+    <row r="42" spans="1:8" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B42" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="38" t="s">
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B43" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-    </row>
-    <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="75"/>
-      <c r="D49" s="60"/>
-    </row>
-    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="75"/>
+      <c r="D46" s="60"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C48:D48"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B42"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in cell at right" sqref="C42"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in this cell" sqref="E42"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B39"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in cell at right" sqref="C39"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in this cell" sqref="E39"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -8431,8 +8456,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8468,7 +8493,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="48" t="s">
@@ -8476,7 +8501,7 @@
       </c>
       <c r="E3" s="73">
         <f ca="1">TODAY()</f>
-        <v>44803</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8489,7 +8514,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8513,7 +8538,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -8636,11 +8661,11 @@
         <v>57</v>
       </c>
       <c r="D17" s="57">
-        <v>1000</v>
+        <v>890</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>890</v>
       </c>
       <c r="F17" s="13"/>
     </row>
@@ -8653,11 +8678,11 @@
         <v>58</v>
       </c>
       <c r="D18" s="57">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -8666,15 +8691,15 @@
       <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C19" s="99" t="s">
-        <v>84</v>
+      <c r="C19" s="84" t="s">
+        <v>76</v>
       </c>
       <c r="D19" s="57">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F19" s="13"/>
     </row>
@@ -8683,15 +8708,15 @@
       <c r="B20" s="15">
         <v>1</v>
       </c>
-      <c r="C20" s="99" t="s">
-        <v>86</v>
+      <c r="C20" s="84" t="s">
+        <v>77</v>
       </c>
       <c r="D20" s="57">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E20" s="65">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -8700,15 +8725,15 @@
       <c r="B21" s="15">
         <v>2</v>
       </c>
-      <c r="C21" s="99" t="s">
-        <v>72</v>
+      <c r="C21" s="84" t="s">
+        <v>71</v>
       </c>
       <c r="D21" s="57">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E21" s="65">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="F21" s="13"/>
     </row>
@@ -8885,7 +8910,7 @@
       </c>
       <c r="E37" s="66">
         <f>IF(SUM(E16:E36)&gt;0,SUM(E16:E36),"")</f>
-        <v>2358</v>
+        <v>2182</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -8909,8 +8934,9 @@
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="46"/>
+    <row r="40" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="12"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="59" t="s">
         <v>50</v>
       </c>
@@ -8919,14 +8945,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="77"/>
-      <c r="D41" s="78" t="s">
+    <row r="41" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="12"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="79">
+      <c r="E41" s="70">
         <f>IF(SUM(E37)&gt;0,SUM((E37*E38)+E37+E40),"")</f>
-        <v>2358</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -8966,10 +8993,11 @@
       <c r="E44" s="87"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="85"/>
@@ -8986,18 +9014,19 @@
       <c r="E49" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B45:E45"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sales Tax amount is automatically calculated in this cell" sqref="E40"/>
@@ -9060,7 +9089,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="48" t="s">
@@ -9068,7 +9097,7 @@
       </c>
       <c r="E3" s="73">
         <f ca="1">TODAY()</f>
-        <v>44803</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9081,7 +9110,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9548,17 +9577,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company name is automatically appended in this cell" sqref="B40"/>
@@ -9578,20 +9607,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9806,26 +9835,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54052FB7-D2F8-411E-99D4-C6DC8353E0B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F1C080F-93BB-45C3-9F16-21DAD2A3A197}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F1C080F-93BB-45C3-9F16-21DAD2A3A197}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54052FB7-D2F8-411E-99D4-C6DC8353E0B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
